--- a/Корпоративний бізнес дирекції_2021_03_10.xlsx
+++ b/Корпоративний бізнес дирекції_2021_03_10.xlsx
@@ -17,8 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Загальна '!$A$4:$K$154</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="487">
   <si>
     <t>ФІЛІЯ</t>
   </si>
@@ -2084,10 +2083,10 @@
   <dimension ref="A1:K290"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="F170" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="L173" sqref="L173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6384,7 +6383,9 @@
       <c r="I175" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="J175" s="19"/>
+      <c r="J175" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="176" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A176" s="50">
@@ -6413,7 +6414,9 @@
       <c r="I176" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="J176" s="19"/>
+      <c r="J176" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="177" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A177" s="50">
